--- a/Bicycle-Rental/asset/agency.xlsx
+++ b/Bicycle-Rental/asset/agency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9E548-573C-4485-97E3-595A17FE3935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206325F-7623-49CC-87E3-41CE71E73CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,20 +457,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -516,7 +516,7 @@
         <v>106.80108</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -539,7 +539,7 @@
         <v>105.783103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -562,7 +562,7 @@
         <v>107.535916</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -585,7 +585,7 @@
         <v>108.231555</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -608,7 +608,7 @@
         <v>106.69832</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>

--- a/Bicycle-Rental/asset/agency.xlsx
+++ b/Bicycle-Rental/asset/agency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206325F-7623-49CC-87E3-41CE71E73CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9E548-573C-4485-97E3-595A17FE3935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,20 +457,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -516,7 +516,7 @@
         <v>106.80108</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -539,7 +539,7 @@
         <v>105.783103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -562,7 +562,7 @@
         <v>107.535916</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -585,7 +585,7 @@
         <v>108.231555</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -608,7 +608,7 @@
         <v>106.69832</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
